--- a/robot_sessions_detailed_updated.xlsx
+++ b/robot_sessions_detailed_updated.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sessions_1-6" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-12-21_18-45" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-25_OpenSCAD" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2026-01-26_Chassis-Design" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,7 +21,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -105,6 +106,10 @@
       <name val="Arial"/>
       <sz val="10"/>
     </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -144,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -175,6 +180,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2393,7 +2399,6 @@
         </is>
       </c>
     </row>
-    <row r="85"/>
     <row r="86">
       <c r="A86" s="9" t="inlineStr">
         <is>
@@ -2418,7 +2423,6 @@
         </is>
       </c>
     </row>
-    <row r="88"/>
     <row r="89">
       <c r="A89" s="9" t="inlineStr">
         <is>
@@ -2686,9 +2690,7 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-    </row>
+    <row r="3"/>
     <row r="4">
       <c r="A4" s="21" t="inlineStr">
         <is>
@@ -2703,9 +2705,7 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-    </row>
+    <row r="6"/>
     <row r="7">
       <c r="A7" s="21" t="inlineStr">
         <is>
@@ -2818,253 +2818,1173 @@
         </is>
       </c>
     </row>
+    <row r="23"/>
+    <row r="24">
+      <c r="A24" s="21" t="inlineStr">
+        <is>
+          <t>Technical Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="30" customHeight="1">
+      <c r="A25" s="23" t="inlineStr">
+        <is>
+          <t>OpenSCAD Workflow: Edit .scad files in VS Code → Auto-preview in OpenSCAD app → Export STL → PrusaSlicer</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="30" customHeight="1">
+      <c r="A26" s="23" t="inlineStr">
+        <is>
+          <t>File Resolution: $fn=60-80 for design preview (fast), $fn=100 for final STL export (smooth)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="30" customHeight="1">
+      <c r="A27" s="23" t="inlineStr">
+        <is>
+          <t>Clearance Standards: Press fit (0.05-0.1mm), Sliding fit (0.2-0.3mm), Loose fit (0.4-0.5mm)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="30" customHeight="1">
+      <c r="A28" s="23" t="inlineStr">
+        <is>
+          <t>Printer Tolerance: Prusa CORE One ~±0.1-0.2mm XY accuracy (fixed), 0.05-0.3mm layer height (controllable)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="30" customHeight="1">
+      <c r="A29" s="23" t="inlineStr">
+        <is>
+          <t>Project Structure: learning/ (experiments), src/ (production code), hardware/ (final CAD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="30" customHeight="1">
+      <c r="A30" s="23" t="inlineStr">
+        <is>
+          <t>Git Workflow: Used 'git mv' to preserve file history during reorganization</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="30" customHeight="1">
+      <c r="A31" s="23" t="inlineStr">
+        <is>
+          <t>Migration Stats: 20 new directories created, 17 files moved, 0 failures</t>
+        </is>
+      </c>
+    </row>
+    <row r="32"/>
+    <row r="33">
+      <c r="A33" s="21" t="inlineStr">
+        <is>
+          <t>Files Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="23" t="inlineStr">
+        <is>
+          <t>learning/openscad/basics/01_cylinder.scad - Basic shapes introduction</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="23" t="inlineStr">
+        <is>
+          <t>learning/openscad/basics/02_cube_with_holes.scad - Difference operations for mounting holes</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="23" t="inlineStr">
+        <is>
+          <t>learning/openscad/basics/03_wheel.scad - Parametric wheel with weight reduction</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="23" t="inlineStr">
+        <is>
+          <t>learning/openscad/basics/peg_in_hole_example.scad - Interlocking parts with clearance</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="23" t="inlineStr">
+        <is>
+          <t>maintenance/reorganize_folders_1-24-26.ps1 - PowerShell migration script</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="23" t="inlineStr">
+        <is>
+          <t>maintenance/reorganize_log_20260125_052929.txt - Migration execution log</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="23" t="inlineStr">
+        <is>
+          <t>learning_new/ - Complete topic-based directory structure (20 subdirectories)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="23" t="inlineStr">
+        <is>
+          <t>hardware/chassis, camera, sensors, legs, library, electronics/ - Expanded structure</t>
+        </is>
+      </c>
+    </row>
+    <row r="42"/>
+    <row r="43">
+      <c r="A43" s="21" t="inlineStr">
+        <is>
+          <t>Next Steps</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="23" t="inlineStr">
+        <is>
+          <t>🔄 Finalize directory reorganization (rename learning_new to learning, remove old structure)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="23" t="inlineStr">
+        <is>
+          <t>🔄 Commit reorganization to Git with detailed commit message</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="23" t="inlineStr">
+        <is>
+          <t>🔄 Start designing actual robot parts (motor mount, camera bracket, sensor mounts)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="23" t="inlineStr">
+        <is>
+          <t>🔄 Download Spot Micro STL files for quadruped reference</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="23" t="inlineStr">
+        <is>
+          <t>🔄 Calculate optimal stereo camera baseline spacing (10-20cm range)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="23" t="inlineStr">
+        <is>
+          <t>🔄 Create parametric chassis base plate in OpenSCAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="23" t="inlineStr">
+        <is>
+          <t>🔄 Design wheel motor brackets for Phase 1 wheeled base</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="23" t="inlineStr">
+        <is>
+          <t>🔄 Test print tolerance calibration pieces on Prusa CORE One</t>
+        </is>
+      </c>
+    </row>
+    <row r="52"/>
+    <row r="53">
+      <c r="A53" s="21" t="inlineStr">
+        <is>
+          <t>Key Learnings</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="30" customHeight="1">
+      <c r="A54" s="23" t="inlineStr">
+        <is>
+          <t>OpenSCAD is code-based CAD - perfect for parametric robot design and version control</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="30" customHeight="1">
+      <c r="A55" s="23" t="inlineStr">
+        <is>
+          <t>Clearance is NOT printer error compensation - it's intentional design gap for part fit</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="30" customHeight="1">
+      <c r="A56" s="23" t="inlineStr">
+        <is>
+          <t>$fn affects visual smoothness only - dimensional accuracy comes from proper measurements</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="30" customHeight="1">
+      <c r="A57" s="23" t="inlineStr">
+        <is>
+          <t>Topic-based organization scales better than numbered lessons for multi-year projects</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="30" customHeight="1">
+      <c r="A58" s="23" t="inlineStr">
+        <is>
+          <t>Git mv preserves file history during reorganization (critical for long-term tracking)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="30" customHeight="1">
+      <c r="A59" s="23" t="inlineStr">
+        <is>
+          <t>Test prints are essential - design clearance values need real-world validation</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="30" customHeight="1">
+      <c r="A60" s="23" t="inlineStr">
+        <is>
+          <t>Spot Micro chassis can be used with wheels first, then retrofit legs later (hybrid approach)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B145"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="100" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="24" t="inlineStr">
+        <is>
+          <t>ROBOT PROJECT SESSION SUMMARY</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Session:</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>OpenSCAD Chassis Design - Vision Test Platform</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Duration:</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>~2 hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Focus:</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CAD design, OpenSCAD fundamentals, parametric chassis creation</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>OVERVIEW</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Pivoted from exploring existing Spot Micro designs to creating custom parametric OpenSCAD
+chassis optimized for vision testing. Compared Claude vs Gemini recommendations, verified claims
+about existing projects (Metabot, OpenCat), and made strategic decision to build purpose-built
+platform rather than adapt complex existing designs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>KEY ACCOMPLISHMENTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1. Strategic Decision: Vision-First Approach</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   - Decided to build minimal test chassis before adding mobility</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   - Focus on camera mounting and vision algorithms first</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   - Defer wheel/leg mechanisms until vision system validated</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2. Created camera_stereo_bar.scad (Parametric Camera Mount)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   - 150mm baseline optimized for 2-400cm detection range</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   - Exact mounting for Camera Module 3 Wide (120° FOV)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   - M2 camera mounting, M3 chassis mounting</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   - Cable routing channels integrated</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   - Fully parametric - adjust baseline with single variable</t>
+        </is>
+      </c>
+    </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="21" t="inlineStr">
-        <is>
-          <t>Technical Details</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" ht="30" customHeight="1">
-      <c r="A25" s="23" t="inlineStr">
-        <is>
-          <t>OpenSCAD Workflow: Edit .scad files in VS Code → Auto-preview in OpenSCAD app → Export STL → PrusaSlicer</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="30" customHeight="1">
-      <c r="A26" s="23" t="inlineStr">
-        <is>
-          <t>File Resolution: $fn=60-80 for design preview (fast), $fn=100 for final STL export (smooth)</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" ht="30" customHeight="1">
-      <c r="A27" s="23" t="inlineStr">
-        <is>
-          <t>Clearance Standards: Press fit (0.05-0.1mm), Sliding fit (0.2-0.3mm), Loose fit (0.4-0.5mm)</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" ht="30" customHeight="1">
-      <c r="A28" s="23" t="inlineStr">
-        <is>
-          <t>Printer Tolerance: Prusa CORE One ~±0.1-0.2mm XY accuracy (fixed), 0.05-0.3mm layer height (controllable)</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" ht="30" customHeight="1">
-      <c r="A29" s="23" t="inlineStr">
-        <is>
-          <t>Project Structure: learning/ (experiments), src/ (production code), hardware/ (final CAD)</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" ht="30" customHeight="1">
-      <c r="A30" s="23" t="inlineStr">
-        <is>
-          <t>Git Workflow: Used 'git mv' to preserve file history during reorganization</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" ht="30" customHeight="1">
-      <c r="A31" s="23" t="inlineStr">
-        <is>
-          <t>Migration Stats: 20 new directories created, 17 files moved, 0 failures</t>
-        </is>
-      </c>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3. Created vision_test_chassis.scad (Complete Test Platform)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   - 200×150mm footprint (Spot Micro compatible dimensions)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   - 130mm height (cameras at 13cm - optimal for vision)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   - Raspberry Pi 5 mounting with standoffs</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   - Anker PowerCore 20000 battery compartment</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   - Future Spot leg mounting holes pre-marked</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   - Weight reduction holes for efficiency</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4. Research &amp; Analysis: Compared AI Assistant Recommendations</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="21" t="inlineStr">
-        <is>
-          <t>Files Created</t>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   - Evaluated Claude vs Gemini design approaches</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="23" t="inlineStr">
-        <is>
-          <t>learning/openscad/basics/01_cylinder.scad - Basic shapes introduction</t>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   - Verified Gemini's Metabot claim (TRUE - exists with OpenSCAD)</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="23" t="inlineStr">
-        <is>
-          <t>learning/openscad/basics/02_cube_with_holes.scad - Difference operations for mounting holes</t>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   - Debunked "SpotMicro OpenSCAD" claim (FALSE - doesn't exist)</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="23" t="inlineStr">
-        <is>
-          <t>learning/openscad/basics/03_wheel.scad - Parametric wheel with weight reduction</t>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   - Analyzed OpenCat (software framework, not CAD files)</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="23" t="inlineStr">
-        <is>
-          <t>learning/openscad/basics/peg_in_hole_example.scad - Interlocking parts with clearance</t>
-        </is>
-      </c>
+      <c r="A37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="23" t="inlineStr">
-        <is>
-          <t>maintenance/reorganize_folders_1-24-26.ps1 - PowerShell migration script</t>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>5. Learned Critical CAD Workflow Distinctions</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="23" t="inlineStr">
-        <is>
-          <t>maintenance/reorganize_log_20260125_052929.txt - Migration execution log</t>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   - STL import vs parametric design trade-offs</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="23" t="inlineStr">
-        <is>
-          <t>learning_new/ - Complete topic-based directory structure (20 subdirectories)</t>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   - When to adapt vs build from scratch</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="23" t="inlineStr">
-        <is>
-          <t>hardware/chassis, camera, sensors, legs, library, electronics/ - Expanded structure</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr"/>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   - Parametric code advantages over mesh editing</t>
+        </is>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="21" t="inlineStr">
-        <is>
-          <t>Next Steps</t>
+      <c r="A43" s="6" t="inlineStr">
+        <is>
+          <t>TECHNICAL DETAILS</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="23" t="inlineStr">
-        <is>
-          <t>🔄 Finalize directory reorganization (rename learning_new to learning, remove old structure)</t>
-        </is>
-      </c>
+      <c r="A44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="23" t="inlineStr">
-        <is>
-          <t>🔄 Commit reorganization to Git with detailed commit message</t>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Camera Configuration:</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="23" t="inlineStr">
-        <is>
-          <t>🔄 Start designing actual robot parts (motor mount, camera bracket, sensor mounts)</t>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Baseline: 150mm (optimal for 50-300cm depth perception)</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="23" t="inlineStr">
-        <is>
-          <t>🔄 Download Spot Micro STL files for quadruped reference</t>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Module: Raspberry Pi Camera Module 3 Wide (120° FOV)</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="23" t="inlineStr">
-        <is>
-          <t>🔄 Calculate optimal stereo camera baseline spacing (10-20cm range)</t>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Height: 130mm above ground (good horizon view)</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="23" t="inlineStr">
-        <is>
-          <t>🔄 Create parametric chassis base plate in OpenSCAD</t>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Mounting: M2 screws, 21mm hole spacing</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="23" t="inlineStr">
-        <is>
-          <t>🔄 Design wheel motor brackets for Phase 1 wheeled base</t>
-        </is>
-      </c>
+      <c r="A50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="23" t="inlineStr">
-        <is>
-          <t>🔄 Test print tolerance calibration pieces on Prusa CORE One</t>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Chassis Specifications:</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr"/>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Dimensions: 200×150×130mm (L×W×H)</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="21" t="inlineStr">
-        <is>
-          <t>Key Learnings</t>
-        </is>
-      </c>
-    </row>
-    <row r="54" ht="30" customHeight="1">
-      <c r="A54" s="23" t="inlineStr">
-        <is>
-          <t>OpenSCAD is code-based CAD - perfect for parametric robot design and version control</t>
-        </is>
-      </c>
-    </row>
-    <row r="55" ht="30" customHeight="1">
-      <c r="A55" s="23" t="inlineStr">
-        <is>
-          <t>Clearance is NOT printer error compensation - it's intentional design gap for part fit</t>
-        </is>
-      </c>
-    </row>
-    <row r="56" ht="30" customHeight="1">
-      <c r="A56" s="23" t="inlineStr">
-        <is>
-          <t>$fn affects visual smoothness only - dimensional accuracy comes from proper measurements</t>
-        </is>
-      </c>
-    </row>
-    <row r="57" ht="30" customHeight="1">
-      <c r="A57" s="23" t="inlineStr">
-        <is>
-          <t>Topic-based organization scales better than numbered lessons for multi-year projects</t>
-        </is>
-      </c>
-    </row>
-    <row r="58" ht="30" customHeight="1">
-      <c r="A58" s="23" t="inlineStr">
-        <is>
-          <t>Git mv preserves file history during reorganization (critical for long-term tracking)</t>
-        </is>
-      </c>
-    </row>
-    <row r="59" ht="30" customHeight="1">
-      <c r="A59" s="23" t="inlineStr">
-        <is>
-          <t>Test prints are essential - design clearance values need real-world validation</t>
-        </is>
-      </c>
-    </row>
-    <row r="60" ht="30" customHeight="1">
-      <c r="A60" s="23" t="inlineStr">
-        <is>
-          <t>Spot Micro chassis can be used with wheels first, then retrofit legs later (hybrid approach)</t>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Base plate: 3mm PLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Struts: 15mm square, 3mm wall thickness, hollow for weight savings</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Pi 5 standoffs: 8mm height for cooling</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Battery pocket: Recessed 1mm for retention</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>OpenSCAD Design Principles:</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - All dimensions parameterized (easy to modify)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - $fn = 60 for preview, increase to 100 for final export</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - No supports needed for printing</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Modular design (camera bar separate from chassis)</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Print Settings (Prusa CORE One):</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Material: PLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Layer height: 0.15-0.2mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Infill: 20-30%</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Print time: ~4-6 hours (chassis), ~1 hour (camera bar)</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="6" t="inlineStr">
+        <is>
+          <t>FILES CREATED</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>1. camera_stereo_bar.scad</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   - Parametric stereo camera mounting bar</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   - 420 lines of documented OpenSCAD code</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   - Includes reference models for visualization</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2. vision_test_chassis.scad</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   - Complete vision test platform</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   - 520 lines of documented OpenSCAD code</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   - Component references for Pi5 and battery</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="6" t="inlineStr">
+        <is>
+          <t>KEY DESIGN DECISIONS</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Why Parametric from Scratch vs Adapting Existing:</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ✓ Faster iteration (2 sec preview vs minutes for STL)</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ✓ Exact fit for specific components (Pi5, Camera Module 3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ✓ Educational value (learn OpenSCAD properly)</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ✓ Lightweight files (~10KB vs 100MB STL)</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ✓ Version control friendly (text vs binary)</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ✗ No pre-validated leg geometry (can add later)</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Why Vision-First Approach:</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Camera/vision is project core differentiator</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Can test algorithms on static platform</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Mobility can be added incrementally</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Reduces complexity during learning phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Why 130mm Camera Height:</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Matches Spot Micro standing height (~13-15cm)</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Good balance of horizon view vs close obstacle detection</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Low enough for stable center of gravity</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - High enough to avoid seeing mostly floor</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Why 150mm Stereo Baseline:</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Optimal for 50-300cm range (sweet spot for indoor robot)</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Based on stereo vision formula: baseline ≈ 1/10 to 1/20 of max range</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - 400cm max detection → 20-40mm baseline range</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - 150mm chosen for good all-around performance</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="6" t="inlineStr">
+        <is>
+          <t>KEY LEARNINGS</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>OpenSCAD Workflow:</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Code-based CAD is ideal for version control and parametric design</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - $fn variable controls curve smoothness (not dimensional accuracy)</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Clearances must be designed in (0.2-0.3mm for sliding fits)</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - difference() for subtractive features (holes, pockets)</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Modules enable reusable, readable code</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>AI Assistant Comparison:</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Both can hallucinate, but in different ways</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Gemini initially hallucinated "SpotMicro OpenSCAD" existence</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Gemini correctly identified Metabot (verified via web search)</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Claude initially too dismissive of existing parametric projects</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Both converged on correct recommendation: custom build</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Design Philosophy Insights:</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - "Box-Dog" concept: simple platform beats premature complexity</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Parametric design pays off even for one-off parts</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Documentation in code is as important as code itself</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Design for current needs, plan for future expansion</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="6" t="inlineStr">
+        <is>
+          <t>NEXT STEPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Immediate (Next Session):</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1. Preview both .scad files in OpenSCAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  2. Verify Camera Module 3 dimensions match specs</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  3. Export STL files (F6 render, then Export)</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  4. Slice in PrusaSlicer</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  5. Print camera bar first (quick test, ~1 hour)</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Short Term (1-2 weeks):</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1. Print complete chassis</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  2. Assemble: Pi5 + battery + camera bar</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  3. Test camera mounting and cable routing</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  4. Begin stereo vision calibration</t>
         </is>
       </c>
     </row>
